--- a/medicine/Psychotrope/Vignoble_de_Hesse-Rhénane/Vignoble_de_Hesse-Rhénane.xlsx
+++ b/medicine/Psychotrope/Vignoble_de_Hesse-Rhénane/Vignoble_de_Hesse-Rhénane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vignoble_de_Hesse-Rh%C3%A9nane</t>
+          <t>Vignoble_de_Hesse-Rhénane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vignobles de la Hesse rhénane (Rheinhessen) se répartissent sur plus de 150 villages, dont 20 % (soit 26 758 hectares en 2018) sont couverts de vignes[1]. Cela en fait la plus grande région viticole d'Allemagne. Les vins de Hesse rhénane représentent de multiples nuances gustatives dues non seulement aux cépages cultivés mais surtout à l'influence des terroirs. Le vignoble de « pays des mille collines » produit des vins blancs secs ou liquoreux, des vins rouges et rosés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignobles de la Hesse rhénane (Rheinhessen) se répartissent sur plus de 150 villages, dont 20 % (soit 26 758 hectares en 2018) sont couverts de vignes. Cela en fait la plus grande région viticole d'Allemagne. Les vins de Hesse rhénane représentent de multiples nuances gustatives dues non seulement aux cépages cultivés mais surtout à l'influence des terroirs. Le vignoble de « pays des mille collines » produit des vins blancs secs ou liquoreux, des vins rouges et rosés.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vignoble_de_Hesse-Rh%C3%A9nane</t>
+          <t>Vignoble_de_Hesse-Rhénane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Hesse rhénane est, sur trois côtés, entourée par les fleuves : le Rhin à l'est et au nord, et la Nahe à l'ouest. Beaucoup de petites collines forment le paysage sur ses 1 400 km2 (on l'appelle le pays des mille collines). Sur ses 650 000 habitants, 200 000 vivent à Mayence ; les autres villes de plus de 20 000 habitants sont Worms (80 000), et Bingen (25 000).
 Avant la Première Guerre mondiale, les vins de Nierstein ont atteint les prix les plus élevés lors de ventes aux enchères internationales. Le Niersteiner Riesling a joui d'une appellation légendaire. Toutefois, pendant une longue période, la quantité a été privilégiée au détriment de la qualité : la réputation des vins de Hesse rhénane en a longtemps souffert.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vignoble_de_Hesse-Rh%C3%A9nane</t>
+          <t>Vignoble_de_Hesse-Rhénane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin de Hesse rhénane, cultivé sur les collines du triangle Mayence - Alzey - Worms, bénéficie d'un micro-climat chaud et ensoleillé, à l'origine d'une grande variété de cépages ; on l’appelle le paradis des vins. Ces vins peuvent se consommer tout au long d'un repas.
 En Hesse rhénane, l'ensoleillement moyen s'élève à environ 1 600 heures, le temps de végétation à environ 240 jours. La température moyenne annuelle est de 10,5 °C.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vignoble_de_Hesse-Rh%C3%A9nane</t>
+          <t>Vignoble_de_Hesse-Rhénane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +593,14 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71 % du vignoble de Hesse rhénane se compose de cépages blancs. À Ingelheim, on cultive davantage des cépages rouges : pinot noir, pinot noir précoce, portugais bleu et Saint Laurent.
-Le riesling et le müller-thurgau dominent les cépages blancs. Le sylvaner, dornfelder, kerner, portugieser, scheurebe et bacchus sont également cultivés[1].
-Source: Statistisches Landesamt Rheinland-Pfalz[2],[3]
-Cépages blanc
-Cépages noirs</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71 % du vignoble de Hesse rhénane se compose de cépages blancs. À Ingelheim, on cultive davantage des cépages rouges : pinot noir, pinot noir précoce, portugais bleu et Saint Laurent.
+Le riesling et le müller-thurgau dominent les cépages blancs. Le sylvaner, dornfelder, kerner, portugieser, scheurebe et bacchus sont également cultivés.
+Source: Statistisches Landesamt Rheinland-Pfalz,
+</t>
         </is>
       </c>
     </row>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vignoble_de_Hesse-Rh%C3%A9nane</t>
+          <t>Vignoble_de_Hesse-Rhénane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +628,9 @@
           <t>Types de vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins blancs de Hesse rhénane sont plus élégants, plus légers et plus fins ; ils se distinguent par leur richesse alcoolique peu élevée, leur harmonie, leur charme et leurs mille nuances.
 Dans d'autres pays aussi, on a planté les mêmes cépages, avant tout le sylvaner, et essayé de récolter les mêmes vins mais ces tentatives n'ont conduit, au mieux, qu'à de pâles imitations.
@@ -625,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vignoble_de_Hesse-Rh%C3%A9nane</t>
+          <t>Vignoble_de_Hesse-Rhénane</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,18 +662,89 @@
           <t>Régions et sous-régions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Trois domaines (Bereiche) et 24 sites (Großlagen) sont divisés en 434 Einzellagen:
-Domaine de Bingen
-Sankt Rochuskapelle : Kempten am Rhein, Gaulsheim, Büdesheim, Dietersheim, Sponsheim, Grolsheim, Gensingen, Horrweiler, Welgesheim, Biebelsheim, Pfaffen-Schwabenheim, Zotzenheim, Badenheim, Dromersheim, Ockenheim
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois domaines (Bereiche) et 24 sites (Großlagen) sont divisés en 434 Einzellagen:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Hesse-Rhénane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Hesse-Rh%C3%A9nane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Régions et sous-régions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Domaine de Bingen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sankt Rochuskapelle : Kempten am Rhein, Gaulsheim, Büdesheim, Dietersheim, Sponsheim, Grolsheim, Gensingen, Horrweiler, Welgesheim, Biebelsheim, Pfaffen-Schwabenheim, Zotzenheim, Badenheim, Dromersheim, Ockenheim
 Abtey : Gau-Algesheim, Appenheim, Nieder-Hilbersheim, Sprendlingen, Sankt Johann, Wolfsheim, Partenheim
 Rheingrafenstein : Pleitersheim, Volxheim, Hackenheim, Frei-Laubersheim, Tiefenthal, Fürfeld, Stein-Bockenheim, Wonsheim, Neu-Bamberg, Siefersheim, Wöllstein, Eckelsheim
 Adelberg : Nack, Nieder-Wiesen, Wendelsheim, Flonheim, Uffhofen, Erbes-Büdesheim, Bornheim, Lonsheim, Bermersheim vor der Höhe, Armsheim, Schimsheim, Ensheim, Wörrstadt, Rommersheim, Sulzheim
 Kurfürstenstück : Gumbsheim, Gau-Bickelheim, Wöllstein, Wallertheim, Gau-Weinheim, Vendersheim
-Kaiserpfalz : Jugenheim in Rheinhessen, Engelstadt, Bubenheim, Schwabenheim an der Selz, Großwinternheim, Ingelheim, Wackernheim, Heidesheim am Rhein
-Domaine de Nierstein
-Sankt Alban : Hechtsheim, Laubenheim, Ebersheim, Bodenheim, Gau-Bischofsheim, Harxheim, Lörzweiler
+Kaiserpfalz : Jugenheim in Rheinhessen, Engelstadt, Bubenheim, Schwabenheim an der Selz, Großwinternheim, Ingelheim, Wackernheim, Heidesheim am Rhein</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Hesse-Rhénane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Hesse-Rh%C3%A9nane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Régions et sous-régions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Domaine de Nierstein</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sankt Alban : Hechtsheim, Laubenheim, Ebersheim, Bodenheim, Gau-Bischofsheim, Harxheim, Lörzweiler
 Domherr : Klein-Winternheim, Mainz, Ober-Olm, Essenheim, Stadecken-Elsheim, Saulheim, Udenheim, Schornsheim, Gabsheim
 Gutes Domtal : Nieder-Olm, Lörzweiler, Nackenheim, Schwabsburg, Dexheim, Dalheim, Weinolsheim, Friesenheim, Undenheim, Köngernheim, Selzen, Hahnheim, Sörgenloch, Zornheim, Mommenheim
 Spiegelberg : Nackenheim, Nierstein, Schwabsburg
@@ -664,9 +754,43 @@
 Krötenbrunnen : Oppenheim, Dienheim, Ludwigshöhe, Guntersblum, Gimbsheim, Alsheim, Eich, Mettenheim, Hillesheim, Wintersheim, Dolgesheim, Eimsheim, Uelversheim
 Vögelsgärten : Ludwigshöhe, Guntersblum
 Petersberg : Bechtolsheim, Gau-Odernheim, Gau-Köngernheim, Framersheim, Gau-Heppenheim, Albig, Alzey, Biebelnheim, Spiesheim
-Rheinblick : Alsheim, Dorn-Dürkheim, Mettenheim
-Domaine de Wonnegau
-Sybillinenstein : Bechenheim, Offenheim, Mauchenheim, Weinheim, Heimersheim, Alzey, Kettenheim, Dautenheim, Wahlheim, Freimersheim
+Rheinblick : Alsheim, Dorn-Dürkheim, Mettenheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Hesse-Rhénane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Hesse-Rh%C3%A9nane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Régions et sous-régions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Domaine de Wonnegau</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sybillinenstein : Bechenheim, Offenheim, Mauchenheim, Weinheim, Heimersheim, Alzey, Kettenheim, Dautenheim, Wahlheim, Freimersheim
 Bergkloster : Esselborn, Flomborn, Eppelsheim, Dintesheim, Hangen-Weisheim, Gundersheim, Gundheim, Bermersheim, Westhofen
 Pilgerpfad : Frettenheim, Dittelsheim, Heßloch, Monzernheim, Bechtheim, Osthofen
 Gotteshilfe : Bechtheim, Osthofen
